--- a/Data/Voltages.xlsx
+++ b/Data/Voltages.xlsx
@@ -68,16 +68,16 @@
     <t>I_P - Ion Saturation Current</t>
   </si>
   <si>
-    <t>Log(I_P - Ion Saturation Current)</t>
+    <t>Log(Negative I_P  + Saturation Current)</t>
   </si>
   <si>
-    <t>Te =</t>
+    <t>Our Te =</t>
   </si>
   <si>
-    <t>Other Te=</t>
+    <t>ev ... ( 1/0.541)</t>
   </si>
   <si>
-    <t>Log(Negative I_P  + Saturation Current)</t>
+    <t>ne=</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,7 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,7 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,7 +351,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,11 +358,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,6 +1084,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17999230842345895"/>
+                  <c:y val="0.34768486536641557"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1172,7 +1179,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$28:$K$43</c:f>
+              <c:f>Sheet1!$J$28:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1611,7 +1618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$20:$K$56</c:f>
+              <c:f>Sheet1!$J$20:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -3588,16 +3595,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>242174</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60078</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>78713</xdr:rowOff>
+      <xdr:rowOff>169761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>396580</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>914853</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>48284</xdr:rowOff>
+      <xdr:rowOff>139332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3624,16 +3631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>686636</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>174729</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231398</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>69674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>377161</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>170332</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419184</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>65277</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3660,16 +3667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>421376</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>93387</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>715531</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>79380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>230876</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>20500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1722659</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>6492</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3994,10 +4001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K60"/>
+  <dimension ref="B2:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="40" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="132" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4005,11 +4012,12 @@
     <col min="2" max="2" width="28.1328125" customWidth="1"/>
     <col min="3" max="3" width="20.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.3984375" customWidth="1"/>
-    <col min="7" max="7" width="21.9296875" customWidth="1"/>
-    <col min="8" max="8" width="28.9296875" customWidth="1"/>
-    <col min="9" max="9" width="25.06640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="32.1328125" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.06640625" customWidth="1"/>
+    <col min="7" max="7" width="16.53125" customWidth="1"/>
+    <col min="8" max="8" width="24.265625" customWidth="1"/>
+    <col min="9" max="9" width="25.265625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="35.86328125" customWidth="1"/>
     <col min="11" max="11" width="39.265625" customWidth="1"/>
     <col min="19" max="19" width="17.796875" customWidth="1"/>
     <col min="20" max="20" width="15.265625" customWidth="1"/>
@@ -4019,7 +4027,7 @@
     <col min="25" max="25" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4030,7 +4038,7 @@
         <v>868000</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -4041,7 +4049,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4077,51 +4085,44 @@
       <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C6" s="25">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C6" s="22">
         <v>-10</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="23">
         <v>-7.2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <f>1000000*(D6-C6)/$D$3</f>
         <v>13.270142180094787</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <f>1000000*D6/$D$2</f>
         <v>-8.2949308755760374</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <f>E6-F6</f>
         <v>21.565073055670823</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <f>-G6</f>
         <v>-21.565073055670823</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <f>G6-$D$4</f>
         <v>15.195073055670822</v>
       </c>
-      <c r="J6" s="28">
-        <f>IF(I6&gt;0,LOG(I6),0)</f>
-        <v>1.1817027924448158</v>
-      </c>
-      <c r="K6" s="29" t="e">
+      <c r="J6" s="25" t="e">
         <f>LOG(H6+$D$4)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C7" s="30">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C7" s="26">
         <v>-9.4600000000000009</v>
       </c>
       <c r="D7" s="10">
@@ -4143,21 +4144,17 @@
         <f t="shared" ref="H7:H56" si="3">-G7</f>
         <v>-20.440736453578531</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="27">
         <f t="shared" ref="I7:I56" si="4">G7-$D$4</f>
         <v>14.07073645357853</v>
       </c>
-      <c r="J7" s="32">
-        <f t="shared" ref="J7:J56" si="5">IF(I7&gt;0,LOG(I7),0)</f>
-        <v>1.1483168287321965</v>
-      </c>
-      <c r="K7" s="29" t="e">
-        <f t="shared" ref="K7:K56" si="6">LOG(H7+$D$4)</f>
+      <c r="J7" s="25" t="e">
+        <f t="shared" ref="J7:J56" si="5">LOG(H7+$D$4)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C8" s="30">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C8" s="26">
         <v>-8.89</v>
       </c>
       <c r="D8" s="10">
@@ -4179,21 +4176,17 @@
         <f t="shared" si="3"/>
         <v>-19.1742197566995</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="27">
         <f t="shared" si="4"/>
         <v>12.804219756699499</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>1.1073531192602035</v>
-      </c>
-      <c r="K8" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C9" s="30">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C9" s="26">
         <v>-8.19</v>
       </c>
       <c r="D9" s="10">
@@ -4215,21 +4208,17 @@
         <f t="shared" si="3"/>
         <v>-17.291589315744641</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="27">
         <f t="shared" si="4"/>
         <v>10.92158931574464</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>1.0382858417418008</v>
-      </c>
-      <c r="K9" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C10" s="30">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C10" s="26">
         <v>-7.6</v>
       </c>
       <c r="D10" s="10">
@@ -4251,21 +4240,17 @@
         <f t="shared" si="3"/>
         <v>-15.930285889007797</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="27">
         <f t="shared" si="4"/>
         <v>9.5602858890077975</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0.98047087953154732</v>
-      </c>
-      <c r="K10" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C11" s="30">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C11" s="26">
         <v>-7.04</v>
       </c>
       <c r="D11" s="10">
@@ -4287,21 +4272,17 @@
         <f t="shared" si="3"/>
         <v>-14.71116255705768</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="27">
         <f t="shared" si="4"/>
         <v>8.3411625570576788</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0.92122658504163746</v>
-      </c>
-      <c r="K11" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C12" s="30">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C12" s="26">
         <v>-6.54</v>
       </c>
       <c r="D12" s="10">
@@ -4323,21 +4304,17 @@
         <f t="shared" si="3"/>
         <v>-14.493851966715447</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="27">
         <f t="shared" si="4"/>
         <v>8.1238519667154456</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0.90976200106654992</v>
-      </c>
-      <c r="K12" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C13" s="30">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C13" s="26">
         <v>-6.17</v>
       </c>
       <c r="D13" s="10">
@@ -4359,21 +4336,17 @@
         <f t="shared" si="3"/>
         <v>-13.457750016380192</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="27">
         <f t="shared" si="4"/>
         <v>7.0877500163801921</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0.85050839166381564</v>
-      </c>
-      <c r="K13" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C14" s="30">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C14" s="26">
         <v>-5.71</v>
       </c>
       <c r="D14" s="10">
@@ -4395,21 +4368,17 @@
         <f t="shared" si="3"/>
         <v>-12.712560333719178</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="27">
         <f t="shared" si="4"/>
         <v>6.3425603337191783</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0.80226460714748293</v>
-      </c>
-      <c r="K14" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C15" s="30">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C15" s="26">
         <v>-5.42</v>
       </c>
       <c r="D15" s="10">
@@ -4431,21 +4400,17 @@
         <f t="shared" si="3"/>
         <v>-12.055605302815209</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="27">
         <f t="shared" si="4"/>
         <v>5.6856053028152091</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0.75477670748965286</v>
-      </c>
-      <c r="K15" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C16" s="30">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C16" s="26">
         <v>-4.7</v>
       </c>
       <c r="D16" s="10">
@@ -4467,21 +4432,17 @@
         <f t="shared" si="3"/>
         <v>-10.078188132002534</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="27">
         <f t="shared" si="4"/>
         <v>3.7081881320025341</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0.56916175961968796</v>
-      </c>
-      <c r="K16" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C17" s="30">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C17" s="26">
         <v>-4.12</v>
       </c>
       <c r="D17" s="10">
@@ -4503,21 +4464,17 @@
         <f t="shared" si="3"/>
         <v>-8.7642780701945959</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="27">
         <f t="shared" si="4"/>
         <v>2.3942780701945958</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>0.37917458773207491</v>
-      </c>
-      <c r="K17" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C18" s="30">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C18" s="26">
         <v>-3.57</v>
       </c>
       <c r="D18" s="10">
@@ -4539,21 +4496,17 @@
         <f t="shared" si="3"/>
         <v>-7.5925481031733888</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="27">
         <f t="shared" si="4"/>
         <v>1.2225481031733887</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>8.7265956165199804E-2</v>
-      </c>
-      <c r="K18" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C19" s="30">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C19" s="26">
         <v>-3.01</v>
       </c>
       <c r="D19" s="10">
@@ -4575,21 +4528,17 @@
         <f t="shared" si="3"/>
         <v>-6.3734247712232719</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="27">
         <f t="shared" si="4"/>
         <v>3.4247712232717831E-3</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="25" t="e">
         <f t="shared" si="5"/>
-        <v>-2.465368434328961</v>
-      </c>
-      <c r="K19" s="29" t="e">
-        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C20" s="30">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C20" s="26">
         <v>-2.46</v>
       </c>
       <c r="D20" s="10">
@@ -4611,21 +4560,17 @@
         <f t="shared" si="3"/>
         <v>-5.2016948042020656</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="27">
         <f t="shared" si="4"/>
         <v>-1.1683051957979345</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" si="6"/>
         <v>6.7556308133505549E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C21" s="30">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C21" s="26">
         <v>-1.99</v>
       </c>
       <c r="D21" s="10">
@@ -4647,21 +4592,17 @@
         <f t="shared" si="3"/>
         <v>-4.4091117566121394</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="27">
         <f t="shared" si="4"/>
         <v>-1.9608882433878607</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="29">
-        <f t="shared" si="6"/>
         <v>0.29245284269224908</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C22" s="30">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C22" s="26">
         <v>-1.5</v>
       </c>
       <c r="D22" s="10">
@@ -4683,21 +4624,17 @@
         <f t="shared" si="3"/>
         <v>-3.5217419791643918</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="27">
         <f t="shared" si="4"/>
         <v>-2.8482580208356083</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="29">
-        <f t="shared" si="6"/>
         <v>0.45457932904817577</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C23" s="30">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C23" s="26">
         <v>-1.02</v>
       </c>
       <c r="D23" s="10">
@@ -4719,21 +4656,17 @@
         <f t="shared" si="3"/>
         <v>-1.9643130146111341</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="27">
         <f t="shared" si="4"/>
         <v>-4.4056869853888658</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="29">
-        <f t="shared" si="6"/>
         <v>0.64401363821933411</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C24" s="30">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C24" s="26">
         <v>-0.49</v>
       </c>
       <c r="D24" s="10">
@@ -4755,812 +4688,720 @@
         <f t="shared" si="3"/>
         <v>-0.88736977744774703</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="27">
         <f t="shared" si="4"/>
         <v>-5.4826302225522534</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="6"/>
         <v>0.73898895576483015</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C25" s="20">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C25" s="18">
         <v>0.01</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>-0.4</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <f t="shared" si="0"/>
         <v>-1.9431279620853084</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <f t="shared" si="1"/>
         <v>-0.46082949308755761</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="19">
         <f t="shared" si="2"/>
         <v>-1.4822984689977508</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="19">
         <f t="shared" si="3"/>
         <v>1.4822984689977508</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="20">
         <f t="shared" si="4"/>
         <v>-7.8522984689977511</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="24">
-        <f t="shared" si="6"/>
         <v>0.89499679894824269</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C26" s="20">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C26" s="18">
         <v>0.53600000000000003</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>-0.3</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <f t="shared" si="0"/>
         <v>-3.9620853080568725</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <f t="shared" si="1"/>
         <v>-0.34562211981566821</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="19">
         <f t="shared" si="2"/>
         <v>-3.6164631882412044</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <f t="shared" si="3"/>
         <v>3.6164631882412044</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="20">
         <f t="shared" si="4"/>
         <v>-9.9864631882412045</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="24">
-        <f t="shared" si="6"/>
         <v>0.9994117054635433</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C27" s="20">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C27" s="18">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>-0.2</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>-6.2085308056872037</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <f t="shared" si="1"/>
         <v>-0.2304147465437788</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="19">
         <f t="shared" si="2"/>
         <v>-5.9781160591434253</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <f t="shared" si="3"/>
         <v>5.9781160591434253</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="20">
         <f t="shared" si="4"/>
         <v>-12.348116059143425</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="24">
-        <f t="shared" si="6"/>
         <v>1.0916007027349599</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C28" s="20">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C28" s="18">
         <v>1.54</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="28">
         <v>-0.2</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <f t="shared" si="0"/>
         <v>-8.2464454976303312</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <f t="shared" si="1"/>
         <v>-0.2304147465437788</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="19">
         <f t="shared" si="2"/>
         <v>-8.0160307510865518</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <f t="shared" si="3"/>
         <v>8.0160307510865518</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="20">
         <f t="shared" si="4"/>
         <v>-14.386030751086551</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="24">
-        <f t="shared" si="6"/>
         <v>1.1579409842987678</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C29" s="20">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C29" s="18">
         <v>1.94</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="28">
         <v>-0.1</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <f t="shared" si="0"/>
         <v>-9.6682464454976298</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <f t="shared" si="1"/>
         <v>-0.1152073732718894</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <f t="shared" si="2"/>
         <v>-9.5530390722257401</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <f t="shared" si="3"/>
         <v>9.5530390722257401</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="20">
         <f t="shared" si="4"/>
         <v>-15.923039072225741</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="29">
         <f t="shared" si="5"/>
+        <v>1.2020259607845765</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C30" s="18">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D30" s="28">
         <v>0</v>
       </c>
-      <c r="K29" s="34">
-        <f t="shared" si="6"/>
-        <v>1.2020259607845765</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C30" s="20">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D30" s="33">
-        <v>0</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <f t="shared" si="0"/>
         <v>-10.616113744075829</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="19">
         <f t="shared" si="2"/>
         <v>-10.616113744075829</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="19">
         <f t="shared" si="3"/>
         <v>10.616113744075829</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="20">
         <f t="shared" si="4"/>
         <v>-16.98611374407583</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="29">
         <f t="shared" si="5"/>
+        <v>1.2300940279236605</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C31" s="18">
+        <v>2.59</v>
+      </c>
+      <c r="D31" s="28">
         <v>0</v>
       </c>
-      <c r="K30" s="34">
-        <f t="shared" si="6"/>
-        <v>1.2300940279236605</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C31" s="20">
-        <v>2.59</v>
-      </c>
-      <c r="D31" s="33">
-        <v>0</v>
-      </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <f t="shared" si="0"/>
         <v>-12.274881516587678</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="19">
         <f t="shared" si="2"/>
         <v>-12.274881516587678</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="19">
         <f t="shared" si="3"/>
         <v>12.274881516587678</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="20">
         <f t="shared" si="4"/>
         <v>-18.644881516587677</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="34">
-        <f t="shared" si="6"/>
         <v>1.2705596278766951</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C32" s="20">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C32" s="18">
         <v>2.77</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="28">
         <v>0.1</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <f t="shared" si="0"/>
         <v>-12.654028436018958</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="19">
         <f t="shared" si="1"/>
         <v>0.1152073732718894</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="19">
         <f t="shared" si="2"/>
         <v>-12.769235809290848</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="19">
         <f t="shared" si="3"/>
         <v>12.769235809290848</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="20">
         <f t="shared" si="4"/>
         <v>-19.139235809290849</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="34">
-        <f t="shared" si="6"/>
         <v>1.2819245932927714</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C33" s="20">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C33" s="18">
         <v>2.97</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="28">
         <v>0.2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <f t="shared" si="0"/>
         <v>-13.127962085308058</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="19">
         <f t="shared" si="1"/>
         <v>0.2304147465437788</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="19">
         <f t="shared" si="2"/>
         <v>-13.358376831851837</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="19">
         <f t="shared" si="3"/>
         <v>13.358376831851837</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="20">
         <f t="shared" si="4"/>
         <v>-19.728376831851836</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="34">
-        <f t="shared" si="6"/>
         <v>1.2950913547925551</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C34" s="20">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C34" s="18">
         <v>3.37</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="28">
         <v>0.2</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <f t="shared" si="0"/>
         <v>-15.023696682464456</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="19">
         <f t="shared" si="1"/>
         <v>0.2304147465437788</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="19">
         <f t="shared" si="2"/>
         <v>-15.254111429008235</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="19">
         <f t="shared" si="3"/>
         <v>15.254111429008235</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="20">
         <f t="shared" si="4"/>
         <v>-21.624111429008234</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="34">
-        <f t="shared" si="6"/>
         <v>1.3349382706151378</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C35" s="20">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C35" s="18">
         <v>4.03</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="28">
         <v>0.2</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <f t="shared" si="0"/>
         <v>-18.151658767772513</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="19">
         <f t="shared" si="1"/>
         <v>0.2304147465437788</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="19">
         <f t="shared" si="2"/>
         <v>-18.382073514316293</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="19">
         <f t="shared" si="3"/>
         <v>18.382073514316293</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="20">
         <f t="shared" si="4"/>
         <v>-24.752073514316294</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="34">
-        <f t="shared" si="6"/>
         <v>1.3936115862233633</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C36" s="20">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C36" s="18">
         <v>4.4800000000000004</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="28">
         <v>0.3</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <f t="shared" si="0"/>
         <v>-19.810426540284361</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="19">
         <f t="shared" si="1"/>
         <v>0.34562211981566821</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="19">
         <f t="shared" si="2"/>
         <v>-20.15604866010003</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <f t="shared" si="3"/>
         <v>20.15604866010003</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="20">
         <f t="shared" si="4"/>
         <v>-26.526048660100031</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="34">
-        <f t="shared" si="6"/>
         <v>1.4236725619717747</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C37" s="20">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C37" s="18">
         <v>4.79</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="28">
         <v>0.4</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <f t="shared" si="0"/>
         <v>-20.805687203791468</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="19">
         <f t="shared" si="1"/>
         <v>0.46082949308755761</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="19">
         <f t="shared" si="2"/>
         <v>-21.266516696879027</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="19">
         <f t="shared" si="3"/>
         <v>21.266516696879027</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="20">
         <f t="shared" si="4"/>
         <v>-27.636516696879028</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="34">
-        <f t="shared" si="6"/>
         <v>1.4414833037290968</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C38" s="20">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C38" s="18">
         <v>5.43</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="28">
         <v>0.4</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <f t="shared" si="0"/>
         <v>-23.838862559241701</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="19">
         <f t="shared" si="1"/>
         <v>0.46082949308755761</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="19">
         <f t="shared" si="2"/>
         <v>-24.299692052329259</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="19">
         <f t="shared" si="3"/>
         <v>24.299692052329259</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="20">
         <f t="shared" si="4"/>
         <v>-30.66969205232926</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="34">
-        <f t="shared" si="6"/>
         <v>1.4867094153484606</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C39" s="20">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C39" s="18">
         <v>6.21</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="28">
         <v>0.4</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <f t="shared" si="0"/>
         <v>-27.535545023696681</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="19">
         <f t="shared" si="1"/>
         <v>0.46082949308755761</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="19">
         <f t="shared" si="2"/>
         <v>-27.99637451678424</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="19">
         <f t="shared" si="3"/>
         <v>27.99637451678424</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="20">
         <f t="shared" si="4"/>
         <v>-34.366374516784241</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="34">
-        <f t="shared" si="6"/>
         <v>1.536133718625315</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C40" s="20">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C40" s="18">
         <v>7.01</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="28">
         <v>0.6</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="19">
         <f t="shared" si="0"/>
         <v>-30.379146919431278</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="19">
         <f t="shared" si="1"/>
         <v>0.69124423963133641</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="19">
         <f t="shared" si="2"/>
         <v>-31.070391159062616</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="19">
         <f t="shared" si="3"/>
         <v>31.070391159062616</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="20">
         <f t="shared" si="4"/>
         <v>-37.440391159062614</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="34">
-        <f t="shared" si="6"/>
         <v>1.5733403773880503</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C41" s="20">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C41" s="18">
         <v>7.68</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="28">
         <v>0.6</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <f t="shared" si="0"/>
         <v>-33.554502369668249</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="19">
         <f t="shared" si="1"/>
         <v>0.69124423963133641</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="19">
         <f t="shared" si="2"/>
         <v>-34.245746609299587</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="19">
         <f t="shared" si="3"/>
         <v>34.245746609299587</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="20">
         <f t="shared" si="4"/>
         <v>-40.615746609299585</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="34">
-        <f t="shared" si="6"/>
         <v>1.6086944409587352</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C42" s="20">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C42" s="18">
         <v>8.1199999999999992</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="28">
         <v>0.7</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <f t="shared" si="0"/>
         <v>-35.165876777251178</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="19">
         <f t="shared" si="1"/>
         <v>0.80645161290322576</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="19">
         <f t="shared" si="2"/>
         <v>-35.972328390154402</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="19">
         <f t="shared" si="3"/>
         <v>35.972328390154402</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="20">
         <f t="shared" si="4"/>
         <v>-42.3423283901544</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="34">
-        <f t="shared" si="6"/>
         <v>1.6267747360450442</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C43" s="20">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C43" s="18">
         <v>8.76</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="28">
         <v>0.8</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
         <f t="shared" si="0"/>
         <v>-37.725118483412324</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="19">
         <f t="shared" si="1"/>
         <v>0.92165898617511521</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="19">
         <f t="shared" si="2"/>
         <v>-38.646777469587441</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="19">
         <f t="shared" si="3"/>
         <v>38.646777469587441</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="20">
         <f t="shared" si="4"/>
         <v>-45.016777469587439</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="34">
-        <f t="shared" si="6"/>
         <v>1.6533744027642927</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C44" s="20">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C44" s="18">
         <v>9.43</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="19">
         <v>1</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <f t="shared" si="0"/>
         <v>-39.952606635071092</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="19">
         <f t="shared" si="1"/>
         <v>1.1520737327188939</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="19">
         <f t="shared" si="2"/>
         <v>-41.104680367789989</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="19">
         <f t="shared" si="3"/>
         <v>41.104680367789989</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="20">
         <f t="shared" si="4"/>
         <v>-47.474680367789986</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="24">
-        <f t="shared" si="6"/>
         <v>1.6764620494496587</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C45" s="20">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C45" s="18">
         <v>10.1</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="19">
         <v>1</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="19">
         <f t="shared" si="0"/>
         <v>-43.127962085308056</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="19">
         <f t="shared" si="1"/>
         <v>1.1520737327188939</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="19">
         <f t="shared" si="2"/>
         <v>-44.280035818026953</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="19">
         <f t="shared" si="3"/>
         <v>44.280035818026953</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="20">
         <f t="shared" si="4"/>
         <v>-50.65003581802695</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="24">
-        <f t="shared" si="6"/>
         <v>1.7045797568150742</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C46" s="20">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C46" s="18">
         <v>11.3</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="19">
         <v>1.4</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <f t="shared" si="0"/>
         <v>-46.919431279620852</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="19">
         <f t="shared" si="1"/>
         <v>1.6129032258064515</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="19">
         <f t="shared" si="2"/>
         <v>-48.532334505427301</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="19">
         <f t="shared" si="3"/>
         <v>48.532334505427301</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="20">
         <f t="shared" si="4"/>
         <v>-54.902334505427298</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="24">
-        <f t="shared" si="6"/>
         <v>1.7395908115041809</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C47" s="13">
         <v>12</v>
       </c>
@@ -5589,14 +5430,10 @@
       </c>
       <c r="J47" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="16">
-        <f t="shared" si="6"/>
         <v>1.7596861035444498</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C48" s="13">
         <v>12.3</v>
       </c>
@@ -5625,14 +5462,10 @@
       </c>
       <c r="J48" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="16">
-        <f t="shared" si="6"/>
         <v>1.7649734695253751</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C49" s="13">
         <v>13.4</v>
       </c>
@@ -5661,14 +5494,10 @@
       </c>
       <c r="J49" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="16">
-        <f t="shared" si="6"/>
         <v>1.7972854350875311</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C50" s="13">
         <v>14.1</v>
       </c>
@@ -5697,14 +5526,10 @@
       </c>
       <c r="J50" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="16">
-        <f t="shared" si="6"/>
         <v>1.8101331024278928</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C51" s="13">
         <v>14.5</v>
       </c>
@@ -5733,14 +5558,10 @@
       </c>
       <c r="J51" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="16">
-        <f t="shared" si="6"/>
         <v>1.8156094207470364</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C52" s="13">
         <v>15.3</v>
       </c>
@@ -5769,14 +5590,10 @@
       </c>
       <c r="J52" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="16">
-        <f t="shared" si="6"/>
         <v>1.8355560546490837</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C53" s="13">
         <v>15.6</v>
       </c>
@@ -5805,14 +5622,10 @@
       </c>
       <c r="J53" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="16">
-        <f t="shared" si="6"/>
         <v>1.8377424873350998</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C54" s="13">
         <v>16.100000000000001</v>
       </c>
@@ -5841,14 +5654,10 @@
       </c>
       <c r="J54" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="16">
-        <f t="shared" si="6"/>
         <v>1.8436013146402273</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C55" s="13">
         <v>16.899999999999999</v>
       </c>
@@ -5877,15 +5686,11 @@
       </c>
       <c r="J55" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="16">
-        <f t="shared" si="6"/>
         <v>1.8623293214228334</v>
       </c>
     </row>
-    <row r="56" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C56" s="17">
+    <row r="56" spans="3:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C56" s="16">
         <v>17.600000000000001</v>
       </c>
       <c r="D56" s="12">
@@ -5907,45 +5712,45 @@
         <f t="shared" si="3"/>
         <v>67.628366130124277</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="17">
         <f t="shared" si="4"/>
         <v>-73.998366130124282</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="16">
-        <f t="shared" si="6"/>
         <v>1.8692221306971273</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C59"/>
       <c r="D59"/>
-      <c r="I59" s="7" t="s">
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E74" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J59">
-        <f>1/0.54</f>
-        <v>1.8518518518518516</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="I60" s="7" t="s">
+      <c r="F74" s="31">
+        <f>1/0.541</f>
+        <v>1.8484288354898335</v>
+      </c>
+      <c r="G74" t="s">
         <v>16</v>
       </c>
-      <c r="J60">
-        <f>1/0.27</f>
-        <v>3.7037037037037033</v>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E75" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Voltages.xlsx
+++ b/Data/Voltages.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2c1ee6892f08fec/Documents/01Physics 121W/Plasma Diagnostics/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Gresl\OneDrive\Documents\01Physics 121W\Plasma Diagnostics\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Operating Parameters</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>ev ... ( 1/0.541)</t>
-  </si>
-  <si>
-    <t>ne=</t>
   </si>
 </sst>
 </file>
@@ -486,10 +483,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$D$57</c:f>
+              <c:f>Sheet1!$D$6:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-7.2</c:v>
                 </c:pt>
@@ -648,10 +645,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$57</c:f>
+              <c:f>Sheet1!$H$6:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-21.565073055670823</c:v>
                 </c:pt>
@@ -4003,31 +4000,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="132" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.1328125" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.06640625" customWidth="1"/>
-    <col min="7" max="7" width="16.53125" customWidth="1"/>
-    <col min="8" max="8" width="24.265625" customWidth="1"/>
-    <col min="9" max="9" width="25.265625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="35.86328125" customWidth="1"/>
-    <col min="11" max="11" width="39.265625" customWidth="1"/>
-    <col min="19" max="19" width="17.796875" customWidth="1"/>
-    <col min="20" max="20" width="15.265625" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="16.06640625" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" customWidth="1"/>
-    <col min="25" max="25" width="26.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" customWidth="1"/>
+    <col min="11" max="11" width="39.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="22" width="16" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4038,7 +4034,7 @@
         <v>868000</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -4049,7 +4045,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -4063,7 +4059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4089,7 +4085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="22">
         <v>-10</v>
       </c>
@@ -4121,7 +4117,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="26">
         <v>-9.4600000000000009</v>
       </c>
@@ -4153,7 +4149,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="26">
         <v>-8.89</v>
       </c>
@@ -4185,7 +4181,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" s="26">
         <v>-8.19</v>
       </c>
@@ -4217,7 +4213,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" s="26">
         <v>-7.6</v>
       </c>
@@ -4249,7 +4245,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" s="26">
         <v>-7.04</v>
       </c>
@@ -4281,7 +4277,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="26">
         <v>-6.54</v>
       </c>
@@ -4313,7 +4309,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="26">
         <v>-6.17</v>
       </c>
@@ -4345,7 +4341,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="26">
         <v>-5.71</v>
       </c>
@@ -4377,7 +4373,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15" s="26">
         <v>-5.42</v>
       </c>
@@ -4409,7 +4405,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" s="26">
         <v>-4.7</v>
       </c>
@@ -4441,7 +4437,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="26">
         <v>-4.12</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="26">
         <v>-3.57</v>
       </c>
@@ -4505,7 +4501,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="26">
         <v>-3.01</v>
       </c>
@@ -4537,7 +4533,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="26">
         <v>-2.46</v>
       </c>
@@ -4569,7 +4565,7 @@
         <v>6.7556308133505549E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="26">
         <v>-1.99</v>
       </c>
@@ -4601,7 +4597,7 @@
         <v>0.29245284269224908</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="26">
         <v>-1.5</v>
       </c>
@@ -4633,7 +4629,7 @@
         <v>0.45457932904817577</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="26">
         <v>-1.02</v>
       </c>
@@ -4665,7 +4661,7 @@
         <v>0.64401363821933411</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="26">
         <v>-0.49</v>
       </c>
@@ -4697,7 +4693,7 @@
         <v>0.73898895576483015</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="18">
         <v>0.01</v>
       </c>
@@ -4729,7 +4725,7 @@
         <v>0.89499679894824269</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="18">
         <v>0.53600000000000003</v>
       </c>
@@ -4761,7 +4757,7 @@
         <v>0.9994117054635433</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="18">
         <v>1.1100000000000001</v>
       </c>
@@ -4793,7 +4789,7 @@
         <v>1.0916007027349599</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="18">
         <v>1.54</v>
       </c>
@@ -4820,12 +4816,12 @@
         <f t="shared" si="4"/>
         <v>-14.386030751086551</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="29">
         <f t="shared" si="5"/>
         <v>1.1579409842987678</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="18">
         <v>1.94</v>
       </c>
@@ -4857,7 +4853,7 @@
         <v>1.2020259607845765</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" s="18">
         <v>2.2400000000000002</v>
       </c>
@@ -4889,7 +4885,7 @@
         <v>1.2300940279236605</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31" s="18">
         <v>2.59</v>
       </c>
@@ -4921,7 +4917,7 @@
         <v>1.2705596278766951</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C32" s="18">
         <v>2.77</v>
       </c>
@@ -4953,7 +4949,7 @@
         <v>1.2819245932927714</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="18">
         <v>2.97</v>
       </c>
@@ -4985,7 +4981,7 @@
         <v>1.2950913547925551</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="18">
         <v>3.37</v>
       </c>
@@ -5017,7 +5013,7 @@
         <v>1.3349382706151378</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="18">
         <v>4.03</v>
       </c>
@@ -5049,7 +5045,7 @@
         <v>1.3936115862233633</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="18">
         <v>4.4800000000000004</v>
       </c>
@@ -5081,7 +5077,7 @@
         <v>1.4236725619717747</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="18">
         <v>4.79</v>
       </c>
@@ -5113,7 +5109,7 @@
         <v>1.4414833037290968</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="18">
         <v>5.43</v>
       </c>
@@ -5145,7 +5141,7 @@
         <v>1.4867094153484606</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="18">
         <v>6.21</v>
       </c>
@@ -5177,7 +5173,7 @@
         <v>1.536133718625315</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="18">
         <v>7.01</v>
       </c>
@@ -5209,7 +5205,7 @@
         <v>1.5733403773880503</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="18">
         <v>7.68</v>
       </c>
@@ -5241,7 +5237,7 @@
         <v>1.6086944409587352</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="18">
         <v>8.1199999999999992</v>
       </c>
@@ -5273,7 +5269,7 @@
         <v>1.6267747360450442</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="18">
         <v>8.76</v>
       </c>
@@ -5305,7 +5301,7 @@
         <v>1.6533744027642927</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="18">
         <v>9.43</v>
       </c>
@@ -5337,7 +5333,7 @@
         <v>1.6764620494496587</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="18">
         <v>10.1</v>
       </c>
@@ -5369,7 +5365,7 @@
         <v>1.7045797568150742</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="18">
         <v>11.3</v>
       </c>
@@ -5401,7 +5397,7 @@
         <v>1.7395908115041809</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="13">
         <v>12</v>
       </c>
@@ -5433,7 +5429,7 @@
         <v>1.7596861035444498</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="13">
         <v>12.3</v>
       </c>
@@ -5465,7 +5461,7 @@
         <v>1.7649734695253751</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" s="13">
         <v>13.4</v>
       </c>
@@ -5497,7 +5493,7 @@
         <v>1.7972854350875311</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" s="13">
         <v>14.1</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>1.8101331024278928</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" s="13">
         <v>14.5</v>
       </c>
@@ -5561,7 +5557,7 @@
         <v>1.8156094207470364</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="13">
         <v>15.3</v>
       </c>
@@ -5593,7 +5589,7 @@
         <v>1.8355560546490837</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="13">
         <v>15.6</v>
       </c>
@@ -5625,7 +5621,7 @@
         <v>1.8377424873350998</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="13">
         <v>16.100000000000001</v>
       </c>
@@ -5657,7 +5653,7 @@
         <v>1.8436013146402273</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="13">
         <v>16.899999999999999</v>
       </c>
@@ -5689,7 +5685,7 @@
         <v>1.8623293214228334</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="16">
         <v>17.600000000000001</v>
       </c>
@@ -5721,19 +5717,19 @@
         <v>1.8692221306971273</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="D59"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E74" s="30" t="s">
         <v>15</v>
       </c>
@@ -5745,16 +5741,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E75" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>